--- a/MESWebApi/Template/点检岗位.xlsx
+++ b/MESWebApi/Template/点检岗位.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>生产线</t>
   </si>
@@ -755,94 +755,6 @@
       <t>11N.m</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -981,12 +893,12 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,13 +1207,13 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B33" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1329,11 +1241,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>45</v>
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1345,11 +1257,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>45</v>
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1363,11 +1275,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>46</v>
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1381,11 +1293,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>47</v>
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -1399,11 +1311,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>48</v>
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1417,11 +1329,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>49</v>
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1435,11 +1347,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>62</v>
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -1453,11 +1365,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>54</v>
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15">
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -1469,11 +1381,11 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>54</v>
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15">
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -1487,11 +1399,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>54</v>
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15">
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>19</v>
@@ -1505,11 +1417,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>63</v>
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -1523,11 +1435,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>52</v>
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15">
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
@@ -1541,11 +1453,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>64</v>
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1559,11 +1471,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>51</v>
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -1577,11 +1489,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25">
-      <c r="A16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>61</v>
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1595,11 +1507,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>44</v>
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15">
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -1613,11 +1525,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25">
-      <c r="A18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>60</v>
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1631,11 +1543,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25">
-      <c r="A19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>59</v>
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15">
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1649,11 +1561,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25">
-      <c r="A20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>45</v>
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15">
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
@@ -1667,11 +1579,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25">
-      <c r="A21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>58</v>
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="15">
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1685,11 +1597,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25">
-      <c r="A22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>57</v>
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15">
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1703,11 +1615,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25">
-      <c r="A23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>56</v>
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15">
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1721,11 +1633,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.5">
-      <c r="A24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>54</v>
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15">
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1739,11 +1651,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25">
-      <c r="A25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>55</v>
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15">
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1757,11 +1669,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25">
-      <c r="A26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>54</v>
+      <c r="A26" s="15">
+        <v>1</v>
+      </c>
+      <c r="B26" s="15">
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>36</v>
@@ -1775,11 +1687,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25">
-      <c r="A27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>54</v>
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15">
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -1793,11 +1705,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25">
-      <c r="A28" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>53</v>
+      <c r="A28" s="15">
+        <v>1</v>
+      </c>
+      <c r="B28" s="15">
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1811,11 +1723,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25">
-      <c r="A29" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>52</v>
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" s="15">
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
@@ -1829,11 +1741,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
-      <c r="A30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>52</v>
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15">
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>36</v>
@@ -1847,11 +1759,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25">
-      <c r="A31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>51</v>
+      <c r="A31" s="15">
+        <v>1</v>
+      </c>
+      <c r="B31" s="15">
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -1865,11 +1777,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25">
-      <c r="A32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>50</v>
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" s="15">
+        <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -1883,11 +1795,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
-      <c r="A33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>44</v>
+      <c r="A33" s="15">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16">
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
